--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>7.275957614183426e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>7.275957614183426e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77287.16215942414</v>
+        <v>5162588.496803667</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77287.16215942414</v>
+        <v>5162588.496803667</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341270649.91005</v>
+        <v>48838384.39149375</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13745.39534851297</v>
+        <v>1084477.691233841</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26901.78506400577</v>
+        <v>2067028.841401867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40055.44574698307</v>
+        <v>3049579.991569894</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53486.14110507032</v>
+        <v>4031146.348626814</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66916.83646315758</v>
+        <v>5012712.705683734</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80347.53182124485</v>
+        <v>5994279.062740654</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93778.22717933208</v>
+        <v>6975845.419797569</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107208.9225374194</v>
+        <v>7957411.776854483</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120652.5881506173</v>
+        <v>8938096.617244067</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134083.2835087046</v>
+        <v>9919662.974300981</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147513.9788667918</v>
+        <v>10901229.3313579</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160944.6742248791</v>
+        <v>11882795.68841482</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174375.3695829663</v>
+        <v>12864362.04547174</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187819.0351961642</v>
+        <v>13845046.88586134</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201275.8003158478</v>
+        <v>14824344.22154984</v>
       </c>
     </row>
   </sheetData>
